--- a/xlsx/公共卫生_intext.xlsx
+++ b/xlsx/公共卫生_intext.xlsx
@@ -15,963 +15,972 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="322">
   <si>
     <t>公共卫生</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6%E5%B9%B4%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>化学年表</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_公共卫生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87</t>
+  </si>
+  <si>
+    <t>散文</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>社会科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
+  </si>
+  <si>
+    <t>中世纪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%A0%82</t>
+  </si>
+  <si>
+    <t>教堂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97</t>
+  </si>
+  <si>
+    <t>穆斯林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>巴格达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0</t>
+  </si>
+  <si>
+    <t>伊斯兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9</t>
+  </si>
+  <si>
+    <t>西方</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%A3%AE%E4%B8%89%E4%B8%96</t>
+  </si>
+  <si>
+    <t>诺森三世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>罗马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A4%A7%E9%99%86</t>
+  </si>
+  <si>
+    <t>新大陆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>社区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E8%BE%BE%E7%B1%B3%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>美索不达米亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>古希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>古罗马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E7%BD%97</t>
+  </si>
+  <si>
+    <t>开罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%95</t>
+  </si>
+  <si>
+    <t>井</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%B5%9B</t>
+  </si>
+  <si>
+    <t>马赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
+  </si>
+  <si>
+    <t>柏林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E4%BC%A6%E8%90%A8</t>
+  </si>
+  <si>
+    <t>佛罗伦萨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>瑞士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%BB%8E%E4%B8%96</t>
+  </si>
+  <si>
+    <t>苏黎世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%AD%BB%E7%97%85</t>
+  </si>
+  <si>
+    <t>黑死病</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8D%AB%E7%94%9F%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>世界卫生组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E5%92%8C%E5%B9%B3</t>
+  </si>
+  <si>
+    <t>绿色和平</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%84%B6%E5%9F%BA%E9%87%91%E6%9C%83</t>
+  </si>
+  <si>
+    <t>世界自然基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
+  </si>
+  <si>
+    <t>伦敦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92</t>
+  </si>
+  <si>
+    <t>洛克菲勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9E%E7%94%9F%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>世界衞生组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/SARS</t>
+  </si>
+  <si>
+    <t>SARS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%BD%E6%B5%81%E6%84%9F</t>
+  </si>
+  <si>
+    <t>禽流感</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%84%9F</t>
+  </si>
+  <si>
+    <t>流感</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%98%8B%E7%89%9B%E7%97%87</t>
+  </si>
+  <si>
+    <t>疯牛症</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E6%BB%8B%E7%97%85</t>
+  </si>
+  <si>
+    <t>艾滋病</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BB%E9%9D%A9%E7%86%B1</t>
+  </si>
+  <si>
+    <t>登革热</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%BF%E7%98%A4</t>
+  </si>
+  <si>
+    <t>肿瘤</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B3%96%E5%B0%BF%E7%97%85</t>
+  </si>
+  <si>
+    <t>糖尿病</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E8%A1%80%E5%8E%8B</t>
+  </si>
+  <si>
+    <t>高血压</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BD%A6%E7%A5%B8</t>
+  </si>
+  <si>
+    <t>车祸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%B8%E7%83%9F</t>
+  </si>
+  <si>
+    <t>吸烟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E9%85%92</t>
+  </si>
+  <si>
+    <t>饮酒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%B8%E6%AF%92</t>
+  </si>
+  <si>
+    <t>吸毒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%AE%89%E5%85%A8%E6%80%A7%E8%A1%8C%E7%82%BA</t>
+  </si>
+  <si>
+    <t>不安全性行为</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%86%82%E9%AC%B1%E7%97%87</t>
+  </si>
+  <si>
+    <t>忧郁症</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E7%BB%84%E7%BB%87</t>
+  </si>
+  <si>
+    <t>政府组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%96%AF%E8%AF%BA_(%E5%8C%BB%E5%AD%A6%E5%AE%B6)</t>
+  </si>
+  <si>
+    <t>约翰·斯诺 (医学家)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/John_Snow</t>
+  </si>
+  <si>
+    <t>en-John Snow</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>学科列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>流行病学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E9%98%B2%E9%86%AB%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>预防医学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88</t>
+  </si>
+  <si>
+    <t>生物统计</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E8%A1%9B%E7%94%9F</t>
+  </si>
+  <si>
+    <t>职业卫生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E4%BF%83%E8%BF%9B</t>
+  </si>
+  <si>
+    <t>健康促进</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>行为科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%B0%91%E5%81%A5%E5%BA%B7%E4%BF%9D%E9%9A%AA</t>
+  </si>
+  <si>
+    <t>全民健康保险</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%9E%8B%E5%86%9C%E6%9D%91%E5%90%88%E4%BD%9C%E5%8C%BB%E7%96%97</t>
+  </si>
+  <si>
+    <t>新型农村合作医疗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%96%AB%E8%8B%97</t>
+  </si>
+  <si>
+    <t>疫苗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%9F%93%E7%97%85</t>
+  </si>
+  <si>
+    <t>传染病</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%9C%9F%E7%85%A7%E8%AD%B7</t>
+  </si>
+  <si>
+    <t>长期照护</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%94%9F</t>
+  </si>
+  <si>
+    <t>卫生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>医学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E8%A1%9B%E7%94%9F</t>
+  </si>
+  <si>
+    <t>食品卫生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%9A%9C</t>
+  </si>
+  <si>
+    <t>社会保障</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%85%AC%E5%85%B1%E5%8D%AB%E7%94%9F</t>
+  </si>
+  <si>
+    <t>Template talk-公共卫生</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_medical_abbreviations</t>
+  </si>
+  <si>
+    <t>en-List of medical abbreviations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E8%A7%A3%E5%89%96%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人体解剖学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>性教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>生理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>风险管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%94%A8%E5%BE%AE%E7%94%9F%E7%89%A9%E5%8F%8A%E5%85%8D%E7%96%AB%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>医用微生物及免疫学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Health_impact_assessment</t>
+  </si>
+  <si>
+    <t>en-Health impact assessment</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E6%94%BF%E7%AD%96%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>健康政策分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%80%A7%E5%8D%B1%E5%AE%B3</t>
+  </si>
+  <si>
+    <t>生物性危害</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E8%A9%95%E4%BC%B0</t>
+  </si>
+  <si>
+    <t>风险评估</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Toxicology_testing</t>
+  </si>
+  <si>
+    <t>en-Toxicology testing</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Occupational_medicine</t>
+  </si>
+  <si>
+    <t>en-Occupational medicine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E5%AE%89%E5%85%A8</t>
+  </si>
+  <si>
+    <t>职业安全</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E7%97%85</t>
+  </si>
+  <si>
+    <t>职业病</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E4%B8%9A%E5%AE%89%E5%85%A8%E4%B8%8E%E5%81%A5%E5%BA%B7</t>
+  </si>
+  <si>
+    <t>职业安全与健康</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人因工程学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E6%B0%B4%E9%81%93</t>
+  </si>
+  <si>
+    <t>下水道</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E6%8E%A9%E5%9F%8B%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>垃圾掩埋场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96%E8%88%87%E7%96%BE%E7%97%85</t>
+  </si>
+  <si>
+    <t>全球化与疾病</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E6%BA%9D%E9%80%9A</t>
+  </si>
+  <si>
+    <t>风险沟通</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Environmental_justice</t>
+  </si>
+  <si>
+    <t>en-Environmental justice</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Environmental_health</t>
+  </si>
+  <si>
+    <t>en-Environmental health</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>人口学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>资讯学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%80%81%E5%8C%96</t>
+  </si>
+  <si>
+    <t>人口老化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%AD%90%E5%8C%96</t>
+  </si>
+  <si>
+    <t>少子化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E7%94%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>优生学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%AE%BA%E9%98%B2%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>自杀防治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E9%86%AB%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>营养医学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>生物统计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%96%AB%E8%8B%97%E6%8E%A5%E7%A8%AE</t>
+  </si>
+  <si>
+    <t>疫苗接种</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%97%85%E5%8E%86</t>
+  </si>
+  <si>
+    <t>病历</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%97%85%E4%BA%BA%E5%AE%89%E5%85%A8</t>
+  </si>
+  <si>
+    <t>病人安全</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hospital_accreditation</t>
+  </si>
+  <si>
+    <t>en-Hospital accreditation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%82%B3%E6%9F%93%E7%97%85</t>
+  </si>
+  <si>
+    <t>性传染病</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%9A%E5%82%B3%E6%9F%93%E7%97%85</t>
+  </si>
+  <si>
+    <t>法定传染病</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E7%96%AB</t>
+  </si>
+  <si>
+    <t>检疫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>医疗经济学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Health_belief_model</t>
+  </si>
+  <si>
+    <t>en-Health belief model</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rational_emotive_behavior_therapy</t>
+  </si>
+  <si>
+    <t>en-Rational emotive behavior therapy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%95%AB%E8%A1%8C%E7%82%BA%E7%90%86%E8%AB%96</t>
+  </si>
+  <si>
+    <t>计画行为理论</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Transtheoretical_model</t>
+  </si>
+  <si>
+    <t>en-Transtheoretical model</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%AA%8D%E7%9F%A5%E7%90%86%E8%AB%96</t>
+  </si>
+  <si>
+    <t>社会认知理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%94%AF%E6%8C%81%E7%90%86%E8%AB%96</t>
+  </si>
+  <si>
+    <t>社会支持理论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E4%BC%A0%E6%92%AD</t>
+  </si>
+  <si>
+    <t>健康传播</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/PRECEDE-PROCEED</t>
+  </si>
+  <si>
+    <t>en-PRECEDE-PROCEED</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Community_health</t>
+  </si>
+  <si>
+    <t>en-Community health</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ecosystem_model</t>
+  </si>
+  <si>
+    <t>en-Ecosystem model</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%81%87%E8%A8%AD%E6%AA%A2%E5%AE%9A</t>
+  </si>
+  <si>
+    <t>假设检定</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%97%85%E4%BE%8B%E5%B0%8D%E7%85%A7%E7%A0%94%E7%A9%B6</t>
+  </si>
+  <si>
+    <t>病例对照研究</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%8F%E6%9C%BA%E5%AF%B9%E7%85%A7%E8%AF%95%E9%AA%8C</t>
+  </si>
+  <si>
+    <t>随机对照试验</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%B4%E5%BA%8A%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>临床流行病学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ROC%E6%9B%B2%E7%BA%BF</t>
+  </si>
+  <si>
+    <t>ROC曲线</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%94%9Ft%E6%AA%A2%E9%A9%97</t>
+  </si>
+  <si>
+    <t>学生t检验</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Z-test</t>
+  </si>
+  <si>
+    <t>Z-test</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Anova</t>
+  </si>
+  <si>
+    <t>Anova</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%B4%E6%AD%B8%E5%88%86%E6%9E%90</t>
+  </si>
+  <si>
+    <t>回归分析</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%B0%8D%E9%A2%A8%E9%9A%AA</t>
+  </si>
+  <si>
+    <t>相对风险</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/SAS</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/SPSS</t>
+  </si>
+  <si>
+    <t>SPSS</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Stata</t>
+  </si>
+  <si>
+    <t>Stata</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%AE%89%E5%85%A8</t>
+  </si>
+  <si>
+    <t>食品安全</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E6%B7%BB%E5%8A%A0%E5%8A%91</t>
+  </si>
+  <si>
+    <t>食品添加剂</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8A%A0%E5%B7%A5</t>
+  </si>
+  <si>
+    <t>食品加工</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%84%AA%E8%89%AF%E8%BE%B2%E7%94%A2%E5%93%81%E8%AD%89%E6%98%8E%E6%A8%99%E7%AB%A0</t>
+  </si>
+  <si>
+    <t>台湾优良农产品证明标章</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E5%A5%BD%E4%BD%9C%E6%A5%AD%E8%A6%8F%E7%AF%84</t>
+  </si>
+  <si>
+    <t>良好作业规范</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E5%A5%BD%E8%BE%B2%E6%A5%AD%E8%A6%8F%E7%AF%84</t>
+  </si>
+  <si>
+    <t>良好农业规范</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%AE%B3%E5%88%86%E6%9E%90%E9%87%8D%E8%A6%81%E7%AE%A1%E5%88%B6%E9%BB%9E</t>
+  </si>
+  <si>
+    <t>危害分析重要管制点</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Halal</t>
+  </si>
+  <si>
+    <t>Halal</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%B7%A5%E7%A8%8B</t>
+  </si>
+  <si>
+    <t>食品工程</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Food_microbiology</t>
+  </si>
+  <si>
+    <t>en-Food microbiology</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>食品化学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E6%8A%80%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>食品技术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%9F%BA%E5%9B%A0</t>
+  </si>
+  <si>
+    <t>转基因</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>统计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>会计学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>社会心理学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>传播学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>国立国会图书馆</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%8D%AB%E7%94%9F</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6%E5%B9%B4%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>化学年表</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_公共卫生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%96%87</t>
-  </si>
-  <si>
-    <t>散文</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>社会科学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
-  </si>
-  <si>
-    <t>中世纪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%A0%82</t>
-  </si>
-  <si>
-    <t>教堂</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97</t>
-  </si>
-  <si>
-    <t>穆斯林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%A0%BC%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>巴格达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0</t>
-  </si>
-  <si>
-    <t>伊斯兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9</t>
-  </si>
-  <si>
-    <t>西方</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%A3%AE%E4%B8%89%E4%B8%96</t>
-  </si>
-  <si>
-    <t>諾森三世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>罗马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A4%A7%E9%99%86</t>
-  </si>
-  <si>
-    <t>新大陆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>社区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E8%BE%BE%E7%B1%B3%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>美索不达米亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>古希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BD%97%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>古罗马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E7%BD%97</t>
-  </si>
-  <si>
-    <t>开罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%95</t>
-  </si>
-  <si>
-    <t>井</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%B5%9B</t>
-  </si>
-  <si>
-    <t>马赛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97</t>
-  </si>
-  <si>
-    <t>柏林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E4%BC%A6%E8%90%A8</t>
-  </si>
-  <si>
-    <t>佛罗伦萨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%BB%8E%E4%B8%96</t>
-  </si>
-  <si>
-    <t>苏黎世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%AD%BB%E7%97%85</t>
-  </si>
-  <si>
-    <t>黑死病</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%8D%AB%E7%94%9F%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>世界卫生组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E5%92%8C%E5%B9%B3</t>
-  </si>
-  <si>
-    <t>绿色和平</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%84%B6%E5%9F%BA%E9%87%91%E6%9C%83</t>
-  </si>
-  <si>
-    <t>世界自然基金會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%95%A6</t>
-  </si>
-  <si>
-    <t>伦敦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%85%8B%E8%8F%B2%E5%8B%92</t>
-  </si>
-  <si>
-    <t>洛克菲勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9E%E7%94%9F%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>世界衞生組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/SARS</t>
-  </si>
-  <si>
-    <t>SARS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%BD%E6%B5%81%E6%84%9F</t>
-  </si>
-  <si>
-    <t>禽流感</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%84%9F</t>
-  </si>
-  <si>
-    <t>流感</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%98%8B%E7%89%9B%E7%97%87</t>
-  </si>
-  <si>
-    <t>瘋牛症</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E6%BB%8B%E7%97%85</t>
-  </si>
-  <si>
-    <t>艾滋病</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BB%E9%9D%A9%E7%86%B1</t>
-  </si>
-  <si>
-    <t>登革熱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%BF%E7%98%A4</t>
-  </si>
-  <si>
-    <t>肿瘤</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B3%96%E5%B0%BF%E7%97%85</t>
-  </si>
-  <si>
-    <t>糖尿病</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E8%A1%80%E5%8E%8B</t>
-  </si>
-  <si>
-    <t>高血压</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BD%A6%E7%A5%B8</t>
-  </si>
-  <si>
-    <t>车祸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%B8%E7%83%9F</t>
-  </si>
-  <si>
-    <t>吸烟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%B2%E9%85%92</t>
-  </si>
-  <si>
-    <t>飲酒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%B8%E6%AF%92</t>
-  </si>
-  <si>
-    <t>吸毒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%AE%89%E5%85%A8%E6%80%A7%E8%A1%8C%E7%82%BA</t>
-  </si>
-  <si>
-    <t>不安全性行為</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%86%82%E9%AC%B1%E7%97%87</t>
-  </si>
-  <si>
-    <t>憂鬱症</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E7%BB%84%E7%BB%87</t>
-  </si>
-  <si>
-    <t>政府组织</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E6%96%AF%E8%AF%BA_(%E5%8C%BB%E5%AD%A6%E5%AE%B6)</t>
-  </si>
-  <si>
-    <t>约翰·斯诺 (医学家)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/John_Snow</t>
-  </si>
-  <si>
-    <t>en-John Snow</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%A7%91%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>學科列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>流行病學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E9%98%B2%E9%86%AB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>預防醫學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88</t>
-  </si>
-  <si>
-    <t>生物統計</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E8%A1%9B%E7%94%9F</t>
-  </si>
-  <si>
-    <t>職業衛生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E4%BF%83%E8%BF%9B</t>
-  </si>
-  <si>
-    <t>健康促进</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>行為科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%B0%91%E5%81%A5%E5%BA%B7%E4%BF%9D%E9%9A%AA</t>
-  </si>
-  <si>
-    <t>全民健康保險</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%9E%8B%E5%86%9C%E6%9D%91%E5%90%88%E4%BD%9C%E5%8C%BB%E7%96%97</t>
-  </si>
-  <si>
-    <t>新型农村合作医疗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%96%AB%E8%8B%97</t>
-  </si>
-  <si>
-    <t>疫苗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%9F%93%E7%97%85</t>
-  </si>
-  <si>
-    <t>傳染病</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%9C%9F%E7%85%A7%E8%AD%B7</t>
-  </si>
-  <si>
-    <t>長期照護</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%94%9F</t>
-  </si>
-  <si>
-    <t>衛生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>医学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E8%A1%9B%E7%94%9F</t>
-  </si>
-  <si>
-    <t>食品衛生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%9A%9C</t>
-  </si>
-  <si>
-    <t>社会保障</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%85%AC%E5%85%B1%E5%8D%AB%E7%94%9F</t>
-  </si>
-  <si>
-    <t>Template talk-公共卫生</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_medical_abbreviations</t>
-  </si>
-  <si>
-    <t>en-List of medical abbreviations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BD%93%E8%A7%A3%E5%89%96%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人体解剖学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>性教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>生理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>風險管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%94%A8%E5%BE%AE%E7%94%9F%E7%89%A9%E5%8F%8A%E5%85%8D%E7%96%AB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>醫用微生物及免疫學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Health_impact_assessment</t>
-  </si>
-  <si>
-    <t>en-Health impact assessment</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E6%94%BF%E7%AD%96%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>健康政策分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%80%A7%E5%8D%B1%E5%AE%B3</t>
-  </si>
-  <si>
-    <t>生物性危害</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E8%A9%95%E4%BC%B0</t>
-  </si>
-  <si>
-    <t>風險評估</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Toxicology_testing</t>
-  </si>
-  <si>
-    <t>en-Toxicology testing</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Occupational_medicine</t>
-  </si>
-  <si>
-    <t>en-Occupational medicine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E5%AE%89%E5%85%A8</t>
-  </si>
-  <si>
-    <t>職業安全</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E7%97%85</t>
-  </si>
-  <si>
-    <t>職業病</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E4%B8%9A%E5%AE%89%E5%85%A8%E4%B8%8E%E5%81%A5%E5%BA%B7</t>
-  </si>
-  <si>
-    <t>职业安全与健康</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9B%A0%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人因工程学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E6%B0%B4%E9%81%93</t>
-  </si>
-  <si>
-    <t>下水道</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E6%8E%A9%E5%9F%8B%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>垃圾掩埋場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96%E8%88%87%E7%96%BE%E7%97%85</t>
-  </si>
-  <si>
-    <t>全球化與疾病</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E6%BA%9D%E9%80%9A</t>
-  </si>
-  <si>
-    <t>風險溝通</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Environmental_justice</t>
-  </si>
-  <si>
-    <t>en-Environmental justice</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Environmental_health</t>
-  </si>
-  <si>
-    <t>en-Environmental health</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>人口学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>資訊學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%80%81%E5%8C%96</t>
-  </si>
-  <si>
-    <t>人口老化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%AD%90%E5%8C%96</t>
-  </si>
-  <si>
-    <t>少子化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E7%94%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>優生學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%AE%BA%E9%98%B2%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>自殺防治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E9%86%AB%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>營養醫學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>生物統計學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%96%AB%E8%8B%97%E6%8E%A5%E7%A8%AE</t>
-  </si>
-  <si>
-    <t>疫苗接種</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%97%85%E5%8E%86</t>
-  </si>
-  <si>
-    <t>病历</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%97%85%E4%BA%BA%E5%AE%89%E5%85%A8</t>
-  </si>
-  <si>
-    <t>病人安全</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hospital_accreditation</t>
-  </si>
-  <si>
-    <t>en-Hospital accreditation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%82%B3%E6%9F%93%E7%97%85</t>
-  </si>
-  <si>
-    <t>性傳染病</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%9A%E5%82%B3%E6%9F%93%E7%97%85</t>
-  </si>
-  <si>
-    <t>法定傳染病</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E7%96%AB</t>
-  </si>
-  <si>
-    <t>檢疫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>醫療經濟學</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Health_belief_model</t>
-  </si>
-  <si>
-    <t>en-Health belief model</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rational_emotive_behavior_therapy</t>
-  </si>
-  <si>
-    <t>en-Rational emotive behavior therapy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%95%AB%E8%A1%8C%E7%82%BA%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>計畫行為理論</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Transtheoretical_model</t>
-  </si>
-  <si>
-    <t>en-Transtheoretical model</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%AA%8D%E7%9F%A5%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>社會認知理論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%94%AF%E6%8C%81%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>社會支持理論</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E4%BC%A0%E6%92%AD</t>
-  </si>
-  <si>
-    <t>健康传播</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/PRECEDE-PROCEED</t>
-  </si>
-  <si>
-    <t>en-PRECEDE-PROCEED</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Community_health</t>
-  </si>
-  <si>
-    <t>en-Community health</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ecosystem_model</t>
-  </si>
-  <si>
-    <t>en-Ecosystem model</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%87%E8%A8%AD%E6%AA%A2%E5%AE%9A</t>
-  </si>
-  <si>
-    <t>假設檢定</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%97%85%E4%BE%8B%E5%B0%8D%E7%85%A7%E7%A0%94%E7%A9%B6</t>
-  </si>
-  <si>
-    <t>病例對照研究</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%8F%E6%9C%BA%E5%AF%B9%E7%85%A7%E8%AF%95%E9%AA%8C</t>
-  </si>
-  <si>
-    <t>随机对照试验</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%B4%E5%BA%8A%E6%B5%81%E8%A1%8C%E7%97%85%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>临床流行病学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ROC%E6%9B%B2%E7%BA%BF</t>
-  </si>
-  <si>
-    <t>ROC曲线</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E7%94%9Ft%E6%AA%A2%E9%A9%97</t>
-  </si>
-  <si>
-    <t>學生t檢驗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Z-test</t>
-  </si>
-  <si>
-    <t>Z-test</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Anova</t>
-  </si>
-  <si>
-    <t>Anova</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%B4%E6%AD%B8%E5%88%86%E6%9E%90</t>
-  </si>
-  <si>
-    <t>迴歸分析</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%B0%8D%E9%A2%A8%E9%9A%AA</t>
-  </si>
-  <si>
-    <t>相對風險</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/SAS</t>
-  </si>
-  <si>
-    <t>SAS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/SPSS</t>
-  </si>
-  <si>
-    <t>SPSS</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Stata</t>
-  </si>
-  <si>
-    <t>Stata</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%AE%89%E5%85%A8</t>
-  </si>
-  <si>
-    <t>食品安全</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E6%B7%BB%E5%8A%A0%E5%8A%91</t>
-  </si>
-  <si>
-    <t>食品添加劑</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8A%A0%E5%B7%A5</t>
-  </si>
-  <si>
-    <t>食品加工</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%84%AA%E8%89%AF%E8%BE%B2%E7%94%A2%E5%93%81%E8%AD%89%E6%98%8E%E6%A8%99%E7%AB%A0</t>
-  </si>
-  <si>
-    <t>台灣優良農產品證明標章</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E5%A5%BD%E4%BD%9C%E6%A5%AD%E8%A6%8F%E7%AF%84</t>
-  </si>
-  <si>
-    <t>良好作業規範</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E5%A5%BD%E8%BE%B2%E6%A5%AD%E8%A6%8F%E7%AF%84</t>
-  </si>
-  <si>
-    <t>良好農業規範</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%AE%B3%E5%88%86%E6%9E%90%E9%87%8D%E8%A6%81%E7%AE%A1%E5%88%B6%E9%BB%9E</t>
-  </si>
-  <si>
-    <t>危害分析重要管制點</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO</t>
-  </si>
-  <si>
-    <t>ISO</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Halal</t>
-  </si>
-  <si>
-    <t>Halal</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%B7%A5%E7%A8%8B</t>
-  </si>
-  <si>
-    <t>食品工程</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Food_microbiology</t>
-  </si>
-  <si>
-    <t>en-Food microbiology</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>食品化學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E6%8A%80%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>食品技术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%9F%BA%E5%9B%A0</t>
-  </si>
-  <si>
-    <t>轉基因</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>統計學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E8%A8%88%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>會計學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%BF%83%E7%90%86%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>社會心理學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>傳播學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>國立國會圖書館</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3404,7 +3413,7 @@
         <v>144</v>
       </c>
       <c r="G72" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -5144,7 +5153,7 @@
         <v>262</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -5991,6 +6000,64 @@
         <v>4</v>
       </c>
       <c r="I161" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162" t="n">
+        <v>161</v>
+      </c>
+      <c r="E162" t="s">
+        <v>319</v>
+      </c>
+      <c r="F162" t="s">
+        <v>320</v>
+      </c>
+      <c r="G162" t="n">
+        <v>8</v>
+      </c>
+      <c r="H162" t="s">
+        <v>4</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163" t="n">
+        <v>162</v>
+      </c>
+      <c r="E163" t="s">
+        <v>319</v>
+      </c>
+      <c r="F163" t="s">
+        <v>321</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="s">
+        <v>4</v>
+      </c>
+      <c r="I163" t="n">
         <v>3</v>
       </c>
     </row>
